--- a/pred_ohlcv/54_21/2020-01-21 BZNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 BZNT ohlcv.xlsx
@@ -912,7 +912,7 @@
         <v>-2282251.6737</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>8213443.525276529</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>7693054.539176528</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>7546238.676676529</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>7367362.420076529</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>7636384.269376528</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>6895291.094211602</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>6754554.420411602</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>6883145.591011602</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>6863145.591011602</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>6881716.593511603</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>6710864.051411603</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 BZNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 BZNT ohlcv.xlsx
@@ -2628,7 +2628,7 @@
         <v>6332077.956976529</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>7693054.539176528</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>7546166.676676529</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>7546238.676676529</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>7367362.420076529</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>7636384.269376528</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>7399709.269376528</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>7032023.620176529</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>6862622.614276528</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>6883145.591011602</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>6863145.591011602</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>6881716.593511603</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>6710864.051411603</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
